--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/word_level_predictions_99.xlsx
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>15</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5546,208 +5546,208 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/word_level_predictions_99.xlsx
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>13</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>14</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5546,208 +5546,208 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
